--- a/data/trans_dic/P15_3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15_3-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con familiares no convivientes con COVID-19</t>
+          <t>Población con familiares no convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,22 +686,22 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>22,41%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>24,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>39,32%</t>
+          <t>39,3%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -710,7 +711,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -720,7 +721,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>31,76%</t>
+          <t>30,5%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -730,27 +731,27 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>27,3%</t>
+          <t>27,26%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>39,15%</t>
+          <t>39,14%</t>
         </is>
       </c>
     </row>
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 12,43</t>
+          <t>4,92; 13,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,99; 13,14</t>
+          <t>4,33; 13,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,26; 29,5</t>
+          <t>15,6; 30,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,05; 30,64</t>
+          <t>15,77; 31,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,42; 48,55</t>
+          <t>30,91; 49,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,68; 12,1</t>
+          <t>3,73; 11,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,85; 13,41</t>
+          <t>4,22; 13,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,55; 23,14</t>
+          <t>12,28; 22,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,61; 40,82</t>
+          <t>23,83; 38,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30,33; 48,43</t>
+          <t>29,51; 47,53</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,95; 10,74</t>
+          <t>4,98; 10,78</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,14; 11,38</t>
+          <t>5,1; 11,53</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>15,38; 25,09</t>
+          <t>15,55; 24,67</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>21,86; 33,22</t>
+          <t>22,32; 33,29</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>32,9; 46,4</t>
+          <t>31,93; 46,14</t>
         </is>
       </c>
     </row>
@@ -855,22 +856,22 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,74%</t>
+          <t>27,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>46,13%</t>
+          <t>46,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -880,17 +881,17 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>33,48%</t>
+          <t>33,49%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -905,22 +906,22 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>30,43%</t>
+          <t>30,26%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>47,95%</t>
+          <t>47,94%</t>
         </is>
       </c>
     </row>
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 7,06</t>
+          <t>1,38; 6,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,97; 6,16</t>
+          <t>1,02; 6,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,54; 22,58</t>
+          <t>11,79; 22,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,61; 33,95</t>
+          <t>20,72; 34,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,77; 56,2</t>
+          <t>35,49; 55,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 8,83</t>
+          <t>2,41; 9,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,69</t>
+          <t>0,55; 4,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,92; 25,5</t>
+          <t>14,54; 24,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,33; 39,4</t>
+          <t>27,38; 39,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>41,71; 56,96</t>
+          <t>42,05; 57,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,52; 6,57</t>
+          <t>2,41; 6,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,24</t>
+          <t>1,04; 4,15</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>14,54; 22,05</t>
+          <t>14,46; 22,18</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>25,71; 34,95</t>
+          <t>25,38; 34,74</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>41,43; 54,6</t>
+          <t>41,48; 54,21</t>
         </is>
       </c>
     </row>
@@ -1025,17 +1026,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>25,59%</t>
+          <t>26,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1045,22 +1046,22 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,02%</t>
+          <t>23,3%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>33,01%</t>
+          <t>33,33%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1075,17 +1076,17 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>20,3%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>29,4%</t>
+          <t>29,83%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1103,77 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 8,28</t>
+          <t>3,0; 8,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 7,88</t>
+          <t>2,82; 8,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,83; 21,37</t>
+          <t>13,38; 21,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,29; 31,16</t>
+          <t>21,16; 31,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,45; 42,11</t>
+          <t>28,63; 41,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,42; 14,63</t>
+          <t>7,62; 14,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,51; 15,22</t>
+          <t>7,61; 15,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,97; 27,54</t>
+          <t>19,21; 28,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28,07; 37,42</t>
+          <t>28,51; 37,79</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>41,36; 54,23</t>
+          <t>41,78; 54,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,15; 10,43</t>
+          <t>5,92; 10,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,67; 10,36</t>
+          <t>6,04; 10,7</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>16,59; 23,0</t>
+          <t>17,47; 23,5</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>25,94; 33,26</t>
+          <t>26,12; 33,67</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>36,18; 45,88</t>
+          <t>37,04; 46,62</t>
         </is>
       </c>
     </row>
@@ -1195,17 +1196,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28,69%</t>
+          <t>28,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1220,17 +1221,17 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31,16%</t>
+          <t>30,97%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1245,22 +1246,22 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>29,94%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>48,21%</t>
+          <t>48,2%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,61; 13,76</t>
+          <t>6,34; 12,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,75; 8,09</t>
+          <t>2,83; 8,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,7; 25,54</t>
+          <t>15,78; 25,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,7; 34,02</t>
+          <t>23,68; 34,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,27; 55,41</t>
+          <t>40,92; 55,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,54; 11,16</t>
+          <t>5,52; 11,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,66; 9,02</t>
+          <t>3,77; 9,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,1; 23,12</t>
+          <t>14,62; 23,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,35; 36,0</t>
+          <t>26,56; 36,38</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>41,32; 54,26</t>
+          <t>41,49; 54,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,81; 10,93</t>
+          <t>6,75; 10,83</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,88; 7,64</t>
+          <t>3,8; 7,68</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>16,18; 23,02</t>
+          <t>16,57; 23,27</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>26,68; 33,37</t>
+          <t>26,31; 33,59</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>43,34; 53,45</t>
+          <t>43,24; 53,47</t>
         </is>
       </c>
     </row>
@@ -1365,17 +1366,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>30,79%</t>
+          <t>31,07%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1390,42 +1391,42 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>5,69%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>21,04%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>33,89%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>47,02%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>6,38%</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>21,01%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>33,63%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>47,02%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>6,38%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>32,24%</t>
+          <t>32,51%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1443,77 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,71; 8,42</t>
+          <t>2,92; 8,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,52; 8,46</t>
+          <t>2,4; 7,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,81; 25,7</t>
+          <t>16,13; 26,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,87; 36,82</t>
+          <t>25,3; 36,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,31; 49,16</t>
+          <t>33,38; 48,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,84; 11,49</t>
+          <t>4,79; 11,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,27; 11,62</t>
+          <t>2,98; 9,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,05; 26,32</t>
+          <t>16,62; 26,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,49; 39,8</t>
+          <t>28,02; 39,83</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>40,41; 53,84</t>
+          <t>39,96; 52,92</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,53; 8,76</t>
+          <t>4,25; 8,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,55; 8,81</t>
+          <t>3,65; 7,73</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>17,45; 24,31</t>
+          <t>17,42; 24,49</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>28,11; 36,28</t>
+          <t>28,31; 36,58</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>39,32; 48,82</t>
+          <t>39,2; 48,87</t>
         </is>
       </c>
     </row>
@@ -1535,22 +1536,22 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>23,43%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>35,05%</t>
+          <t>35,06%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1560,22 +1561,22 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>22,47%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>36,83%</t>
+          <t>36,81%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1585,22 +1586,22 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>22,89%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>36,07%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,44; 9,99</t>
+          <t>3,59; 10,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,83; 17,73</t>
+          <t>3,19; 16,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,05; 19,37</t>
+          <t>8,27; 18,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,3; 29,78</t>
+          <t>17,96; 30,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,37; 43,68</t>
+          <t>27,8; 43,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,81; 7,72</t>
+          <t>2,79; 7,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,38; 6,04</t>
+          <t>1,68; 7,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,73; 19,59</t>
+          <t>10,87; 19,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,57; 27,77</t>
+          <t>17,27; 28,08</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>29,03; 46,04</t>
+          <t>29,05; 46,68</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,59; 7,54</t>
+          <t>3,62; 7,47</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,71; 8,92</t>
+          <t>2,99; 8,96</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>10,59; 17,58</t>
+          <t>10,69; 17,41</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>18,66; 27,23</t>
+          <t>19,26; 27,09</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>30,15; 42,31</t>
+          <t>30,64; 42,84</t>
         </is>
       </c>
     </row>
@@ -1705,22 +1706,22 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>18,2%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>26,82%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>40,92%</t>
+          <t>40,91%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1735,17 +1736,17 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>19,12%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>30,59%</t>
+          <t>30,52%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>44,71%</t>
+          <t>44,7%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1755,22 +1756,22 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>28,71%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>42,82%</t>
+          <t>42,81%</t>
         </is>
       </c>
     </row>
@@ -1783,77 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,13; 7,73</t>
+          <t>5,0; 7,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,88; 6,83</t>
+          <t>4,11; 7,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,04; 20,35</t>
+          <t>16,16; 20,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,81; 28,89</t>
+          <t>24,37; 29,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>37,78; 44,56</t>
+          <t>37,7; 44,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,98; 8,68</t>
+          <t>5,96; 8,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,97; 7,62</t>
+          <t>4,93; 7,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,14; 20,97</t>
+          <t>17,35; 21,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>28,31; 33,11</t>
+          <t>28,04; 32,58</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>41,6; 47,7</t>
+          <t>41,69; 48,03</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,88; 7,77</t>
+          <t>5,83; 7,65</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,81; 6,75</t>
+          <t>4,88; 6,75</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>17,01; 20,09</t>
+          <t>17,26; 20,15</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>26,87; 30,39</t>
+          <t>26,83; 30,34</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>40,3; 45,03</t>
+          <t>40,41; 45,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1873,4 +1881,1969 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con familiares no convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>41019</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>40386</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>117492</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>122439</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>16534</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>31044</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>35709</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>89065</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>156735</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>14572</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>72063</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>76095</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>206557</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>279174</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>31107</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>25235; 67740</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>21718; 66188</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>81751; 158532</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>80460; 163064</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>13007; 20977</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>17264; 54407</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>19801; 61782</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>63219; 116908</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>122479; 196477</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11036; 17775</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>48640; 105160</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>49561; 111952</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>161549; 256380</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>228544; 340904</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>25378; 36672</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>18606</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>14955</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>93415</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>163128</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>23000</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>26101</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8918</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>98608</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>173261</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>23542</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>44708</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>23873</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>192022</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>336389</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>46542</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7774; 36562</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5862; 35439</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>66687; 129607</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>123159; 204822</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>17701; 27520</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>12509; 47821</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2844; 23413</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>73859; 126084</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>141646; 204921</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>19849; 27217</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>26105; 71612</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>11346; 45380</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>155222; 238061</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>282115; 386242</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>40272; 52632</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>35297</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>34870</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>116625</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>177869</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>21109</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>74177</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>78747</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>167409</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>237858</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>25956</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>109474</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>113617</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>284034</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>415727</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>47065</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>20260; 56305</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19370; 58616</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>91089; 146868</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>143927; 216744</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>17239; 25004</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>52895; 99857</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>54252; 111633</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>138038; 203197</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>203457; 269682</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22526; 29183</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>81138; 140309</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>84470; 149688</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>244478; 328853</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>364019; 469278</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>42271; 53210</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>60526</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>32688</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>128596</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>183686</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>28173</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>55677</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>42198</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>127294</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>204388</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>25186</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>116203</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>74886</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>255891</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>388074</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>53359</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>40503; 82409</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>18332; 53573</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>101963; 163671</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>151318; 220124</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>23845; 32322</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>38827; 79834</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>25875; 64762</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>98481; 155363</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>175251; 240047</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>21751; 28817</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>90524; 145304</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>50590; 102426</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>218670; 306971</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>341696; 436258</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>47860; 59184</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>26558</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>24317</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>105268</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>153305</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>18220</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>38189</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>28955</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>105852</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>174576</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>22932</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>64747</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>53271</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>211120</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>327881</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>41153</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>14952; 43447</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>11896; 39078</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>81281; 132797</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>124858; 180761</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>14848; 21365</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>24052; 58848</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>15188; 50054</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>83629; 132202</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>144353; 205170</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>19489; 25809</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>43083; 87600</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>36611; 77679</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>175410; 246587</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>285585; 368958</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>36557; 45573</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>33866</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>37324</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>66419</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>124747</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>16421</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>34896</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>26854</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>102644</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>155651</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>23453</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>68762</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>64178</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>169063</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>280399</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>39874</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>19648; 56821</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>17417; 92052</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>43780; 100060</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>95593; 161640</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>13021; 20406</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>20433; 57072</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>12037; 51212</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>75544; 136377</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>119595; 194500</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>18510; 29744</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>46297; 95461</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>37726; 113149</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>130852; 213155</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>235929; 331874</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>33871; 47363</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>391.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>389.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>328.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>529.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>511.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>586.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>920.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>900.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>215871</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>184539</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>627815</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>925175</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>123457</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>260084</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>221381</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>690873</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1102468</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>135642</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>475956</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>405920</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>1318687</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>2027643</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>259099</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>172504; 261147</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>141761; 241334</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>557386; 711424</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>840663; 1017717</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>113749; 134572</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>215187; 304908</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>178214; 270242</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>626768; 762948</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1013049; 1177034</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>126500; 145745</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>411449; 540431</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>344516; 476736</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1218590; 1423373</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>1894556; 2142945</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>244565; 273830</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>